--- a/data/excel_dumps/patients/patient_4.xlsx
+++ b/data/excel_dumps/patients/patient_4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Student Id</t>
   </si>
@@ -38,7 +38,19 @@
     <t>false</t>
   </si>
   <si>
-    <t>2019-10-21</t>
+    <t>2019-11-04</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>chaotsai@stonybrook.edu</t>
+  </si>
+  <si>
+    <t>2019-12-03</t>
+  </si>
+  <si>
+    <t>vlgarcia@stonybrook.edu</t>
   </si>
 </sst>
 </file>
@@ -377,7 +389,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,7 +425,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -430,7 +442,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -447,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -464,10 +476,418 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>206</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
